--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.04339299999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.130179</v>
+      </c>
+      <c r="I2">
+        <v>0.0698021577815419</v>
+      </c>
+      <c r="J2">
+        <v>0.0698021577815419</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.5597896666666667</v>
-      </c>
-      <c r="H2">
-        <v>1.679369</v>
-      </c>
-      <c r="I2">
-        <v>0.4918833646099291</v>
-      </c>
-      <c r="J2">
-        <v>0.491883364609929</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>8.038446</v>
+        <v>4.536281</v>
       </c>
       <c r="N2">
-        <v>24.115338</v>
+        <v>13.608843</v>
       </c>
       <c r="O2">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424039</v>
       </c>
       <c r="P2">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424041</v>
       </c>
       <c r="Q2">
-        <v>4.499839006858001</v>
+        <v>0.196842841433</v>
       </c>
       <c r="R2">
-        <v>40.498551061722</v>
+        <v>1.771585572897</v>
       </c>
       <c r="S2">
-        <v>0.06017281266997598</v>
+        <v>0.005090039092378438</v>
       </c>
       <c r="T2">
-        <v>0.06017281266997598</v>
+        <v>0.005090039092378439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H3">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I3">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J3">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>133.523708</v>
       </c>
       <c r="O3">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877611</v>
       </c>
       <c r="P3">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877612</v>
       </c>
       <c r="Q3">
-        <v>24.91506399780578</v>
+        <v>1.931331420414666</v>
       </c>
       <c r="R3">
-        <v>224.235575980252</v>
+        <v>17.381982783732</v>
       </c>
       <c r="S3">
-        <v>0.3331695814707044</v>
+        <v>0.04994112236281392</v>
       </c>
       <c r="T3">
-        <v>0.3331695814707043</v>
+        <v>0.04994112236281393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H4">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I4">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J4">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>39.492068</v>
       </c>
       <c r="O4">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="P4">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="Q4">
-        <v>7.369083860565778</v>
+        <v>0.5712264355746667</v>
       </c>
       <c r="R4">
-        <v>66.32175474509199</v>
+        <v>5.141037920172</v>
       </c>
       <c r="S4">
-        <v>0.09854097046924877</v>
+        <v>0.01477099632634954</v>
       </c>
       <c r="T4">
-        <v>0.09854097046924874</v>
+        <v>0.01477099632634954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.261615</v>
       </c>
       <c r="I5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>8.038446</v>
+        <v>4.536281</v>
       </c>
       <c r="N5">
-        <v>24.115338</v>
+        <v>13.608843</v>
       </c>
       <c r="O5">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424039</v>
       </c>
       <c r="P5">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424041</v>
       </c>
       <c r="Q5">
-        <v>3.38047468343</v>
+        <v>1.907680051271666</v>
       </c>
       <c r="R5">
-        <v>30.42427215087</v>
+        <v>17.169120461445</v>
       </c>
       <c r="S5">
-        <v>0.04520443277006526</v>
+        <v>0.04932953601987283</v>
       </c>
       <c r="T5">
-        <v>0.04520443277006526</v>
+        <v>0.04932953601987283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.261615</v>
       </c>
       <c r="I6">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J6">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>133.523708</v>
       </c>
       <c r="O6">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877611</v>
       </c>
       <c r="P6">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877612</v>
       </c>
       <c r="Q6">
         <v>18.71727920760222</v>
@@ -818,10 +818,10 @@
         <v>168.45551286842</v>
       </c>
       <c r="S6">
-        <v>0.2502914734803147</v>
+        <v>0.4839987178405233</v>
       </c>
       <c r="T6">
-        <v>0.2502914734803147</v>
+        <v>0.4839987178405235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.261615</v>
       </c>
       <c r="I7">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J7">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>39.492068</v>
       </c>
       <c r="O7">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="P7">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="Q7">
-        <v>5.535976152202221</v>
+        <v>5.535976152202222</v>
       </c>
       <c r="R7">
-        <v>49.82378536981999</v>
+        <v>49.82378536982</v>
       </c>
       <c r="S7">
-        <v>0.07402826088760794</v>
+        <v>0.1431514340275119</v>
       </c>
       <c r="T7">
-        <v>0.07402826088760793</v>
+        <v>0.1431514340275119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.473177</v>
       </c>
       <c r="I8">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J8">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>8.038446</v>
+        <v>4.536281</v>
       </c>
       <c r="N8">
-        <v>24.115338</v>
+        <v>13.608843</v>
       </c>
       <c r="O8">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424039</v>
       </c>
       <c r="P8">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424041</v>
       </c>
       <c r="Q8">
-        <v>1.267869254314</v>
+        <v>0.7154879449123334</v>
       </c>
       <c r="R8">
-        <v>11.410823288826</v>
+        <v>6.439391504211001</v>
       </c>
       <c r="S8">
-        <v>0.01695421969843508</v>
+        <v>0.01850136679198913</v>
       </c>
       <c r="T8">
-        <v>0.01695421969843508</v>
+        <v>0.01850136679198914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.473177</v>
       </c>
       <c r="I9">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J9">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>133.523708</v>
       </c>
       <c r="O9">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877611</v>
       </c>
       <c r="P9">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877612</v>
       </c>
       <c r="Q9">
         <v>7.020038620035112</v>
@@ -1004,10 +1004,10 @@
         <v>63.180347580316</v>
       </c>
       <c r="S9">
-        <v>0.09387346262290389</v>
+        <v>0.1815269010844238</v>
       </c>
       <c r="T9">
-        <v>0.09387346262290386</v>
+        <v>0.1815269010844238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.473177</v>
       </c>
       <c r="I10">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J10">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>39.492068</v>
       </c>
       <c r="O10">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="P10">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="Q10">
         <v>2.076304251115111</v>
@@ -1066,10 +1066,10 @@
         <v>18.686738260036</v>
       </c>
       <c r="S10">
-        <v>0.02776478593074406</v>
+        <v>0.05368988645413697</v>
       </c>
       <c r="T10">
-        <v>0.02776478593074405</v>
+        <v>0.05368988645413698</v>
       </c>
     </row>
   </sheetData>
